--- a/xlsx/美国宪法第一修正案_intext.xlsx
+++ b/xlsx/美国宪法第一修正案_intext.xlsx
@@ -15,2061 +15,2055 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="683">
   <si>
     <t>美国宪法第一修正案</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国宪法第一修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E5%BA%8F%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国宪法序言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>美国宪法第一条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第二条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%89%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第三条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%9B%9B%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第四条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%94%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第五条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%85%AD%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第六条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%83%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第七条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AC%8A%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%85%AB%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第八修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B9%9D%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第九修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%80%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第十一条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%8C%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第十二条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%89%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第十三条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第十四条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%94%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第十五条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%85%AD%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第十六条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%83%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第十七条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E5%85%AB%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十八修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B9%9D%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十九修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第二十条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%80%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第二十一条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%8C%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十二修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%89%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第二十三条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%9B%9B%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第二十四条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%94%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第二十五条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%85%AD%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第二十六条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%83%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十七修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:US_Constitution_article_series</t>
+  </si>
+  <si>
+    <t>Template talk-US Constitution article series</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E6%A1%A3%E6%A1%88%E9%A6%86</t>
+  </si>
+  <si>
+    <t>美国国家档案馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
+  </si>
+  <si>
+    <t>国教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E4%BF%A1%E4%BB%B0%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>宗教信仰自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>言论自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>新闻自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%9C%83%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>集会自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%B7%E6%84%BF</t>
+  </si>
+  <si>
+    <t>请愿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国联邦党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95%E5%A2%9E%E4%BF%AE%E6%A2%9D%E6%96%87</t>
+  </si>
+  <si>
+    <t>宪法增修条文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%B9%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>狭义</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gitlow_v._New_York</t>
+  </si>
+  <si>
+    <t>en-Gitlow v. New York</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十四修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%95%B6%E6%B3%95%E5%BE%8B%E7%A8%8B%E5%BA%8F</t>
+  </si>
+  <si>
+    <t>正当法律程序</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Everson_v._Board_of_Education</t>
+  </si>
+  <si>
+    <t>en-Everson v. Board of Education</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E7%88%B6</t>
+  </si>
+  <si>
+    <t>美国国父</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
+  </si>
+  <si>
+    <t>托马斯·杰斐逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%97%B6%E6%8A%A5%E8%AF%89%E6%B2%99%E5%88%A9%E6%96%87%E6%A1%88</t>
+  </si>
+  <si>
+    <t>纽约时报诉沙利文案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E6%99%AE%E9%80%9A%E6%B3%95%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>英美普通法系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94</t>
+  </si>
+  <si>
+    <t>媒体</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Near_v._Minnesota</t>
+  </si>
+  <si>
+    <t>en-Near v. Minnesota</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E7%A4%BE%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>结社自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%BA%A6%E8%BF%AA%E9%80%8A</t>
+  </si>
+  <si>
+    <t>詹姆斯·麦迪逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>美国独立战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E8%87%AA%E6%B2%BB%E9%A2%86</t>
+  </si>
+  <si>
+    <t>弗吉尼亚自治领</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>弗吉尼亚权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E6%9D%A1%E4%BE%8B</t>
+  </si>
+  <si>
+    <t>邦联条例</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%88%B6%E5%AE%AA%E4%BC%9A%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>美利坚合众国制宪会议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>费城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%A2%85%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>乔治·梅森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>弗吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%96%A9%E8%AB%B8%E8%B3%BD%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马萨诸赛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
+  </si>
+  <si>
+    <t>政教分离</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%90%86%E5%AE%97</t>
+  </si>
+  <si>
+    <t>公理宗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%88%88%C2%B7%E5%B8%83%E8%90%8A%E5%85%8B</t>
+  </si>
+  <si>
+    <t>休戈·布莱克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E5%BC%97%E9%80%8A</t>
+  </si>
+  <si>
+    <t>托马斯·杰弗逊</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Board_of_Education_of_Kiryas_Joel_Village_School_District_v._Grumet</t>
+  </si>
+  <si>
+    <t>en-Board of Education of Kiryas Joel Village School District v. Grumet</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%B6%AD%C2%B7%E8%98%87%E7%89%B9</t>
+  </si>
+  <si>
+    <t>戴维·苏特</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Van_Orden_v._Perry</t>
+  </si>
+  <si>
+    <t>en-Van Orden v. Perry</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/McCreary_County_v._American_Civil_Liberties_Union</t>
+  </si>
+  <si>
+    <t>en-McCreary County v. American Civil Liberties Union</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Salazar_v._Buono</t>
+  </si>
+  <si>
+    <t>en-Salazar v. Buono</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Reynolds_v._United_States</t>
+  </si>
+  <si>
+    <t>en-Reynolds v. United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%96%80%E6%95%99</t>
+  </si>
+  <si>
+    <t>摩门教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>首席大法官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%87%8C%E6%A3%AE%C2%B7%E9%9F%A6%E7%89%B9</t>
+  </si>
+  <si>
+    <t>莫里森·韦特</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/George_Bancroft</t>
+  </si>
+  <si>
+    <t>en-George Bancroft</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%BA%A5%E8%BF%AA%E9%81%9C</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Engel_v._Vitale</t>
+  </si>
+  <si>
+    <t>en-Engel v. Vitale</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Abington_School_District_v._Schempp</t>
+  </si>
+  <si>
+    <t>en-Abington School District v. Schempp</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Walz_v._Tax_Commission</t>
+  </si>
+  <si>
+    <t>en-Walz v. Tax Commission</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lemon_v._Kurtzman</t>
+  </si>
+  <si>
+    <t>en-Lemon v. Kurtzman</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agostini_v._Felton</t>
+  </si>
+  <si>
+    <t>en-Agostini v. Felton</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Zelman_v._Simmons-Harris</t>
+  </si>
+  <si>
+    <t>en-Zelman v. Simmons-Harris</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>威廉·道格拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>美国保守主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%B0%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>信仰自由</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sherbert_v._Verner</t>
+  </si>
+  <si>
+    <t>en-Sherbert v. Verner</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%BE%A9%E8%87%A8%E5%AE%89%E6%81%AF%E6%97%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>基督复临安息日会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%9C%9F%E5%85%AD</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南加州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Wisconsin_v._Yoder</t>
+  </si>
+  <si>
+    <t>en-Wisconsin v. Yoder</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%95%E6%86%B2</t>
+  </si>
+  <si>
+    <t>违宪</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Employment_Division_v._Smith</t>
+  </si>
+  <si>
+    <t>en-Employment Division v. Smith</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Church_of_Lukumi_Babalu_Aye_v._City_of_Hialeah</t>
+  </si>
+  <si>
+    <t>en-Church of Lukumi Babalu Aye v. City of Hialeah</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
+  </si>
+  <si>
+    <t>犹太教</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Religious_Freedom_Restoration_Act</t>
+  </si>
+  <si>
+    <t>en-Religious Freedom Restoration Act</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/City_of_Boerne_v._Flores</t>
+  </si>
+  <si>
+    <t>en-City of Boerne v. Flores</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8B%E6%B3%95</t>
+  </si>
+  <si>
+    <t>释法</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gonzales_v._O_Centro_Espirita_Beneficente_Uniao_do_Vegetal</t>
+  </si>
+  <si>
+    <t>en-Gonzales v. O Centro Espirita Beneficente Uniao do Vegetal</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E7%BA%AA%E5%BF%B5%E9%A6%86</t>
+  </si>
+  <si>
+    <t>美国独立纪念馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A8%80%E8%AE%BA%E8%87%AA%E7%94%B1%E7%9A%84%E4%BE%8B%E5%A4%96</t>
+  </si>
+  <si>
+    <t>美国言论自由的例外</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E5%AE%A1%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>司法审查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>联邦党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E4%BA%9A%E5%BD%93%E6%96%AF</t>
+  </si>
+  <si>
+    <t>约翰·亚当斯</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/the_Alien_and_Sedition_Acts_of_1798</t>
+  </si>
+  <si>
+    <t>en-the Alien and Sedition Acts of 1798</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%A6%E5%85%8D</t>
+  </si>
+  <si>
+    <t>赦免</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%A8%81%E5%BB%89%C2%B7%E5%B8%83%E5%80%AB%E5%8D%97</t>
+  </si>
+  <si>
+    <t>小威廉·布伦南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%A5%A5%E5%88%A9%E5%BC%97%C2%B7%E6%B8%A9%E5%BE%B7%E5%B0%94%C2%B7%E9%9C%8D%E5%A7%86%E6%96%AF</t>
+  </si>
+  <si>
+    <t>小奥利弗·温德尔·霍姆斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>第一次世界大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1917%E5%B9%B4%E9%96%93%E8%AB%9C%E6%B3%95</t>
+  </si>
+  <si>
+    <t>1917年间谍法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B3%E5%85%8B%E8%AF%89%E5%90%88%E4%BC%97%E5%9B%BD%E6%A1%88</t>
+  </si>
+  <si>
+    <t>申克诉合众国案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B8%83%E6%96%AF%E8%AF%89%E5%90%88%E4%BC%97%E5%9B%BD%E6%A1%88</t>
+  </si>
+  <si>
+    <t>德布斯诉合众国案</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Frohwerk_v._United_States</t>
+  </si>
+  <si>
+    <t>en-Frohwerk v. United States</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Abrams_v._United_States</t>
+  </si>
+  <si>
+    <t>en-Abrams v. United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国社会党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%91%C2%B7V%C2%B7%E5%BE%B7%E5%B8%83%E6%96%AF</t>
+  </si>
+  <si>
+    <t>尤金·V·德布斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄亥俄州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E9%A1%BF_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>坎顿 (俄亥俄州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E7%BD%97%C2%B7%E5%A8%81%E5%B0%94%E9%80%8A</t>
+  </si>
+  <si>
+    <t>伍德罗·威尔逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E6%9C%88%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>十月革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E5%B8%83%E8%98%AD%E6%88%B4%E6%96%AF</t>
+  </si>
+  <si>
+    <t>路易斯·布兰戴斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E7%89%B9%E5%B0%BC%E8%AF%89%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E6%A1%88</t>
+  </si>
+  <si>
+    <t>惠特尼诉加利福尼亚州案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>美国共产党</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Charlotte_Anita_Whitney</t>
+  </si>
+  <si>
+    <t>en-Charlotte Anita Whitney</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Herndon_v._Lowry</t>
+  </si>
+  <si>
+    <t>en-Herndon v. Lowry</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>非洲裔美国人</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Angelo_Herndon</t>
+  </si>
+  <si>
+    <t>en-Angelo Herndon</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>乔治亚州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Smith_Act</t>
+  </si>
+  <si>
+    <t>en-Smith Act</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Eugene_Dennis</t>
+  </si>
+  <si>
+    <t>en-Eugene Dennis</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E6%96%AF%E8%AF%89%E5%90%88%E4%BC%97%E5%9B%BD%E6%A1%88</t>
+  </si>
+  <si>
+    <t>丹尼斯诉合众国案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E6%96%87%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>弗雷德·文森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%92%E6%81%A9%E5%BE%B7%C2%B7%E6%B1%89%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>勒恩德·汉德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%88%A9%E5%85%8B%E6%96%AF%C2%B7%E5%BC%97%E5%85%B0%E5%85%8B%E7%A6%8F%E7%89%B9</t>
+  </si>
+  <si>
+    <t>费利克斯·弗兰克福特</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Yates_v._United_States</t>
+  </si>
+  <si>
+    <t>en-Yates v. United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>越南战争</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_v._O%27Brien</t>
+  </si>
+  <si>
+    <t>en-United States v. O'Brien</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Brandenburg_v._Ohio</t>
+  </si>
+  <si>
+    <t>en-Brandenburg v. Ohio</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%81%A9%E8%A8%B4%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%A1%88</t>
+  </si>
+  <si>
+    <t>科恩诉加利福尼亚州案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%8E%BF</t>
+  </si>
+  <si>
+    <t>洛杉矶县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%BE%E5%85%8B</t>
+  </si>
+  <si>
+    <t>夹克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%A6%AC%E6%AD%87%E7%88%BE%C2%B7%E5%93%88%E5%80%AB</t>
+  </si>
+  <si>
+    <t>约翰·马歇尔·哈伦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Talley_v._California</t>
+  </si>
+  <si>
+    <t>en-Talley v. California</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%B8%82</t>
+  </si>
+  <si>
+    <t>洛杉矶市</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/McIntyre_v._Ohio_Elections_Commission</t>
+  </si>
+  <si>
+    <t>en-McIntyre v. Ohio Elections Commission</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Foreign_Agents_Registration_Act</t>
+  </si>
+  <si>
+    <t>en-Foreign Agents Registration Act</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%8C%AE%E9%87%91</t>
+  </si>
+  <si>
+    <t>政治献金</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%A5%87%C2%B7%E9%BA%A5%E5%BA%B7%E8%AB%BE</t>
+  </si>
+  <si>
+    <t>米奇·麦康诺</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/McConnell_v._Federal_Election_Commission</t>
+  </si>
+  <si>
+    <t>en-McConnell v. Federal Election Commission</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Buckley_v._Valeo</t>
+  </si>
+  <si>
+    <t>en-Buckley v. Valeo</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Federal_Election_Campaign_Act</t>
+  </si>
+  <si>
+    <t>en-Federal Election Campaign Act</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bipartisan_Campaign_Reform_Act</t>
+  </si>
+  <si>
+    <t>en-Bipartisan Campaign Reform Act</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tinker_v._Des_Moines_Independent_Community_School_District</t>
+  </si>
+  <si>
+    <t>en-Tinker v. Des Moines Independent Community School District</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Federal_Election_Commission_v._Wisconsin_Right_to_Life,_Inc.</t>
+  </si>
+  <si>
+    <t>en-Federal Election Commission v. Wisconsin Right to Life, Inc.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Davis_v._Federal_Election_Commission</t>
+  </si>
+  <si>
+    <t>en-Davis v. Federal Election Commission</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%85%AC%E6%B0%91%E8%A8%B4%E8%81%AF%E9%82%A6%E7%AB%B6%E9%81%B8%E5%A7%94%E5%93%A1%E6%9C%83%E6%A1%88</t>
+  </si>
+  <si>
+    <t>联合公民诉联邦竞选委员会案</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Austin_v._Michigan_Chamber_of_Commerce</t>
+  </si>
+  <si>
+    <t>en-Austin v. Michigan Chamber of Commerce</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Street_v._New_York</t>
+  </si>
+  <si>
+    <t>en-Street v. New York</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/James_Meredith</t>
+  </si>
+  <si>
+    <t>en-James Meredith</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>美国国旗</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Stromberg_v._California</t>
+  </si>
+  <si>
+    <t>en-Stromberg v. California</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E%E8%AF%89%E7%BA%A6%E7%BF%B0%E9%80%8A%E6%A1%88</t>
+  </si>
+  <si>
+    <t>德克萨斯州诉约翰逊案</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gregory_Lee_Johnson</t>
+  </si>
+  <si>
+    <t>en-Gregory Lee Johnson</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>达拉斯</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_v._Eichman</t>
+  </si>
+  <si>
+    <t>en-United States v. Eichman</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%97%E6%B1%99%E6%90%8D%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>国旗污损修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%A3%E8%AA%89%E5%8B%8B%E7%AB%A0</t>
+  </si>
+  <si>
+    <t>荣誉勋章</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Stolen_Valor_Act</t>
+  </si>
+  <si>
+    <t>en-Stolen Valor Act</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_v._Alvarez</t>
+  </si>
+  <si>
+    <t>en-United States v. Alvarez</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Valentine_v._Chrestensen</t>
+  </si>
+  <si>
+    <t>en-Valentine v. Chrestensen</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
+  </si>
+  <si>
+    <t>纽约市</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Owen_Roberts</t>
+  </si>
+  <si>
+    <t>en-Owen Roberts</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Virginia_State_Pharmacy_Board_v._Virginia_Citizens_Consumer_Council</t>
+  </si>
+  <si>
+    <t>en-Virginia State Pharmacy Board v. Virginia Citizens Consumer Council</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Central_Hudson_Gas_%26_Electric_Corp._v._Public_Service_Commission</t>
+  </si>
+  <si>
+    <t>en-Central Hudson Gas &amp; Electric Corp. v. Public Service Commission</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Posadas_de_Puerto_Rico_Associates_v._Tourism_Company_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Posadas de Puerto Rico Associates v. Tourism Company of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/44_Liquormart,_Inc._v._Rhode_Island</t>
+  </si>
+  <si>
+    <t>en-44 Liquormart, Inc. v. Rhode Island</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>罗德岛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E4%BA%9A%E4%BC%AF%C2%B7%E6%96%B9%E7%89%B9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>亚伯拉罕·亚伯·方特斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>极权主义</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Healy_v._James</t>
+  </si>
+  <si>
+    <t>en-Healy v. James</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bethel_School_District_v._Fraser</t>
+  </si>
+  <si>
+    <t>en-Bethel School District v. Fraser</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hazelwood_v._Kuhlmeier</t>
+  </si>
+  <si>
+    <t>en-Hazelwood v. Kuhlmeier</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Morse_v._Frederick</t>
+  </si>
+  <si>
+    <t>en-Morse v. Frederick</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%C2%B7%E6%96%AF%E5%9B%BE%E5%B0%94%E7%89%B9</t>
+  </si>
+  <si>
+    <t>波特·斯图尔特</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Rosen_v._United_States</t>
+  </si>
+  <si>
+    <t>en-Rosen v. United States</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hicklin_test</t>
+  </si>
+  <si>
+    <t>en-Hicklin test</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E5%BE%B7%E8%8E%B1%E8%B5%9B</t>
+  </si>
+  <si>
+    <t>西奥多·德莱赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E6%82%B2%E5%89%A7</t>
+  </si>
+  <si>
+    <t>美国的悲剧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/D%C2%B7H%C2%B7%E5%8A%B3%E4%BC%A6%E6%96%AF</t>
+  </si>
+  <si>
+    <t>D·H·劳伦斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E6%B3%B0%E8%8E%B1%E5%A4%AB%E4%BA%BA%E7%9A%84%E6%83%85%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>查泰莱夫人的情人</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_v._One_Book_Called_Ulysses</t>
+  </si>
+  <si>
+    <t>en-United States v. One Book Called Ulysses</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%96%AC%E4%BC%8A%E6%96%AF</t>
+  </si>
+  <si>
+    <t>詹姆斯·乔伊斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%88%A9%E8%A5%BF%E6%96%AF</t>
+  </si>
+  <si>
+    <t>尤利西斯</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Roth_v._United_States</t>
+  </si>
+  <si>
+    <t>en-Roth v. United States</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jacobellis_v._Ohio</t>
+  </si>
+  <si>
+    <t>en-Jacobellis v. Ohio</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Miller_v._California</t>
+  </si>
+  <si>
+    <t>en-Miller v. California</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Miller_test</t>
+  </si>
+  <si>
+    <t>en-Miller test</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/New_York_v._Ferber</t>
+  </si>
+  <si>
+    <t>en-New York v. Ferber</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Osborne_v._Ohio</t>
+  </si>
+  <si>
+    <t>en-Osborne v. Ohio</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E8%89%B2%E6%83%85</t>
+  </si>
+  <si>
+    <t>儿童色情</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Stanley_v._Georgia</t>
+  </si>
+  <si>
+    <t>en-Stanley v. Georgia</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ashcroft_v._Free_Speech_Coalition</t>
+  </si>
+  <si>
+    <t>en-Ashcroft v. Free Speech Coalition</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Child_Pornography_Prevention_Act_of_1996</t>
+  </si>
+  <si>
+    <t>en-Child Pornography Prevention Act of 1996</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_v._Williams</t>
+  </si>
+  <si>
+    <t>en-United States v. Williams</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/PROTECT_Act_of_2003</t>
+  </si>
+  <si>
+    <t>en-PROTECT Act of 2003</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Son_of_Sam_law</t>
+  </si>
+  <si>
+    <t>en-Son of Sam law</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E8%B2%9D%E7%88%BE%E7%A7%91%E7%B6%AD%E5%A5%87</t>
+  </si>
+  <si>
+    <t>大卫·贝尔科维奇</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Simon_%26_Schuster_v._Crime_Victims_Board</t>
+  </si>
+  <si>
+    <t>en-Simon &amp; Schuster v. Crime Victims Board</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E5%AF%A6%E6%83%A1%E6%84%8F%E5%8E%9F%E5%89%87</t>
+  </si>
+  <si>
+    <t>真实恶意原则</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/William_Blackstone</t>
+  </si>
+  <si>
+    <t>en-William Blackstone</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%8F%A3%E5%8F%AF%E6%A8%82%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>可口可乐公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>纽约时报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿拉巴马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A9%AC%E5%88%A9%E5%B8%82</t>
+  </si>
+  <si>
+    <t>蒙哥马利市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>非裔美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>民权运动</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dun_%26_Bradstreet,_Inc._v._Greenmoss_Builders,_Inc.</t>
+  </si>
+  <si>
+    <t>en-Dun &amp; Bradstreet, Inc. v. Greenmoss Builders, Inc.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gertz_v._Robert_Welch,_Inc.</t>
+  </si>
+  <si>
+    <t>en-Gertz v. Robert Welch, Inc.</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%89%B2%E5%AE%A2%E9%9B%9C%E8%AA%8C%E8%A8%B4%E7%A6%8F%E7%88%BE%E9%9F%8B%E7%88%BE%E6%A1%88</t>
+  </si>
+  <si>
+    <t>好色客杂志诉福尔韦尔案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%B6%E6%90%9E</t>
+  </si>
+  <si>
+    <t>恶搞</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Milkovich_v._Lorain_Journal_Co.</t>
+  </si>
+  <si>
+    <t>en-Milkovich v. Lorain Journal Co.</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%81%E4%BC%AA</t>
+  </si>
+  <si>
+    <t>证伪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Pruneyard_Shopping_Center_v._Robins</t>
+  </si>
+  <si>
+    <t>en-Pruneyard Shopping Center v. Robins</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>科罗拉多州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%B0%94%C2%B7%E8%89%BE%E5%B0%94%E6%96%AF%E4%BC%AF%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>丹尼尔·艾尔斯伯格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A7%92%E5%A4%A7%E6%A8%93</t>
+  </si>
+  <si>
+    <t>五角大楼</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lovell_v._City_of_Griffin</t>
+  </si>
+  <si>
+    <t>en-Lovell v. City of Griffin</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E5%9F%83%E6%96%87%E6%96%AF%C2%B7%E4%BC%91%E6%96%AF</t>
+  </si>
+  <si>
+    <t>查尔斯·埃文斯·休斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1%E8%A8%B4%E7%BE%8E%E5%9C%8B%E6%A1%88</t>
+  </si>
+  <si>
+    <t>纽约时报诉美国案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
+  </si>
+  <si>
+    <t>理查德·尼克松</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Miami_Herald_Publishing_Co._v._Tornillo</t>
+  </si>
+  <si>
+    <t>en-Miami Herald Publishing Co. v. Tornillo</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E9%80%9A%E8%A8%8A%E5%A7%94%E5%93%A1%E6%9C%83%E8%A8%B4%E5%A4%AA%E5%B9%B3%E6%B4%8B%E9%9B%BB%E5%8F%B0%E6%A1%88</t>
+  </si>
+  <si>
+    <t>联邦通讯委员会诉太平洋电台案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E9%80%9A%E8%A8%8A%E5%A7%94%E5%93%A1%E6%9C%83</t>
+  </si>
+  <si>
+    <t>联邦通讯委员会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Grosjean_v._American_Press_Co.</t>
+  </si>
+  <si>
+    <t>en-Grosjean v. American Press Co.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Branzburg_v._Hayes</t>
+  </si>
+  <si>
+    <t>en-Branzburg v. Hayes</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%AA%E5%AE%A1%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>大陪审团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%A5%A8</t>
+  </si>
+  <si>
+    <t>传票</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E6%98%93%E6%96%AF%C2%B7%E9%AE%91%E5%A8%81%E7%88%BE</t>
+  </si>
+  <si>
+    <t>刘易斯·鲍威尔</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/gag_rule</t>
+  </si>
+  <si>
+    <t>en-gag rule</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Borough_of_Duryea_v._Guarnieri</t>
+  </si>
+  <si>
+    <t>en-Borough of Duryea v. Guarnieri</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_v._Cruikshank</t>
+  </si>
+  <si>
+    <t>en-United States v. Cruikshank</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Noerr-Pennington_doctrine</t>
+  </si>
+  <si>
+    <t>en-Noerr-Pennington doctrine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%9B%BC%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>休曼法案</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/National_Association_for_the_Advancement_of_Colored_People_v._Alabama</t>
+  </si>
+  <si>
+    <t>en-National Association for the Advancement of Colored People v. Alabama</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Roberts_v._United_States_Jaycees</t>
+  </si>
+  <si>
+    <t>en-Roberts v. United States Jaycees</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hurley_v._Irish-American_Gay,_Lesbian,_and_Bisexual_Group_of_Boston</t>
+  </si>
+  <si>
+    <t>en-Hurley v. Irish-American Gay, Lesbian, and Bisexual Group of Boston</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AB%A5%E8%BB%8D%E8%A8%B4%E6%88%B4%E7%88%BE%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国童军诉戴尔案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AB%A5%E8%BB%8D</t>
+  </si>
+  <si>
+    <t>美国童军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E6%AB%83</t>
+  </si>
+  <si>
+    <t>出柜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1689%E5%B9%B4%E6%AC%8A%E5%88%A9%E6%B3%95%E4%BB%A4</t>
+  </si>
+  <si>
+    <t>1689年权利法令</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%86%B2%E7%AB%A0</t>
+  </si>
+  <si>
+    <t>大宪章</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E8%81%94%E9%82%A6%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E7%99%BE%E4%B8%80%E5%8D%81%E5%85%AD%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>澳大利亚联邦宪法第一百一十六条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%A1%AE%E6%96%B0%E9%97%BB%E5%8F%8A%E8%B5%84%E8%AE%AF%E6%B3%95</t>
+  </si>
+  <si>
+    <t>正确新闻及资讯法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>美国国会图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%88%A4%E4%BE%8B%E6%8A%A5%E5%91%8A</t>
+  </si>
+  <si>
+    <t>美国联邦最高法院判例报告</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%A5%88%E5%B0%94%E5%A4%A7%E5%AD%A6%E6%B3%95%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>康奈尔大学法学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/DOI</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8</t>
+  </si>
+  <si>
+    <t>美国法典</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Title_18_of_the_United_States_Code</t>
+  </si>
+  <si>
+    <t>en-Title 18 of the United States Code</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tom_C._Clark</t>
+  </si>
+  <si>
+    <t>en-Tom C. Clark</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E6%AA%A2%E5%AF%9F%E9%95%B7</t>
+  </si>
+  <si>
+    <t>美国总检察长</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Title_50a_of_the_United_States_Code</t>
+  </si>
+  <si>
+    <t>en-Title 50a of the United States Code</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%83%B5%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>华盛顿邮报</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Westmoreland_v._CBS</t>
+  </si>
+  <si>
+    <t>en-Westmoreland v. CBS</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Eastern_Railroad_Presidents_Conference_v._Noerr_Motor_Freight,_Inc</t>
+  </si>
+  <si>
+    <t>en-Eastern Railroad Presidents Conference v. Noerr Motor Freight, Inc</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_Mine_Workers_v._Pennington</t>
+  </si>
+  <si>
+    <t>en-United Mine Workers v. Pennington</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E9%B9%85%E5%87%BA%E7%89%88%E9%9B%86%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>企鹅出版集团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E7%99%BB%E4%B9%A6%E5%B1%8B</t>
+  </si>
+  <si>
+    <t>兰登书屋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>乔治亚大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AE%BA%E7%9A%84%E8%BE%B9%E7%95%8C%EF%BC%9A%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88%E7%AE%80%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>言论的边界：美国宪法第一修正案简史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第三修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第四修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第五修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%85%AD%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第六修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%83%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第七修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十一修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%8C%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十二修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十三修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十五修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%85%AD%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十六修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%83%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十七修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十一修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十三修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十四修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十五修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%85%AD%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十六修正案</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Congressional_Apportionment_Amendment</t>
+  </si>
+  <si>
+    <t>en-Congressional Apportionment Amendment</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Titles_of_Nobility_Amendment</t>
+  </si>
+  <si>
+    <t>en-Titles of Nobility Amendment</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Corwin_Amendment</t>
+  </si>
+  <si>
+    <t>en-Corwin Amendment</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Child_Labor_Amendment</t>
+  </si>
+  <si>
+    <t>en-Child Labor Amendment</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%BB%BA%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>重建修正案</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_proposed_amendments_to_the_United_States_Constitution</t>
+  </si>
+  <si>
+    <t>en-List of proposed amendments to the United States Constitution</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Convention_to_propose_amendments_to_the_United_States_Constitution</t>
+  </si>
+  <si>
+    <t>en-Convention to propose amendments to the United States Constitution</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/State_ratifying_conventions</t>
+  </si>
+  <si>
+    <t>en-State ratifying conventions</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国宪法历史</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mount_Vernon_Conference</t>
+  </si>
+  <si>
+    <t>en-Mount Vernon Conference</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF%E6%9C%83%E8%AD%B0_(1786%E5%B9%B4)</t>
+  </si>
+  <si>
+    <t>安纳波利斯会议 (1786年)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%88%B6%E5%AE%AA%E4%BC%9A%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>美国制宪会议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E6%96%B9%E6%A1%88</t>
+  </si>
+  <si>
+    <t>弗吉尼亚方案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E6%96%B9%E6%A1%88</t>
+  </si>
+  <si>
+    <t>新泽西方案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%A6%A5%E5%8D%8F</t>
+  </si>
+  <si>
+    <t>康涅狄格妥协</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%88%86%E4%B9%8B%E4%B8%89%E5%A6%A5%E5%8D%8F</t>
+  </si>
+  <si>
+    <t>五分之三妥协</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AD%BE%E7%BD%B2%E4%BA%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法签署人列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E7%B4%80%E5%BF%B5%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%85%9A%E4%BA%BA%E6%96%87%E9%9B%86</t>
+  </si>
+  <si>
+    <t>联邦党人文集</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Anti-Federalist_Papers</t>
+  </si>
+  <si>
+    <t>en-Anti-Federalist Papers</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%A6%A5%E5%8D%8F</t>
+  </si>
+  <si>
+    <t>马萨诸塞妥协</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Virginia_Ratifying_Convention</t>
+  </si>
+  <si>
+    <t>en-Virginia Ratifying Convention</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hillsborough_Convention</t>
+  </si>
+  <si>
+    <t>en-Hillsborough Convention</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A1%A3%E6%A1%88%E9%A6%86%E5%A4%A7%E6%A5%BC</t>
+  </si>
+  <si>
+    <t>国家档案馆大楼</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Charters_of_Freedom</t>
+  </si>
+  <si>
+    <t>en-Charters of Freedom</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Independence_Mall_(Philadelphia)</t>
+  </si>
+  <si>
+    <t>en-Independence Mall (Philadelphia)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Constitution_Day_(United_States)</t>
+  </si>
+  <si>
+    <t>en-Constitution Day (United States)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Constitution_Garden</t>
+  </si>
+  <si>
+    <t>en-Constitution Garden</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/National_Constitution_Center</t>
+  </si>
+  <si>
+    <t>en-National Constitution Center</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_Constitution_and_worldwide_influence</t>
+  </si>
+  <si>
+    <t>en-United States Constitution and worldwide influence</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美國憲法</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国宪法第一修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E5%BA%8F%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美國憲法序言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>美国宪法第一条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第二条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%89%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第三条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%9B%9B%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第四条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%94%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第五条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%85%AD%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第六条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%83%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第七条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AC%8A%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國權利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%85%AB%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第八修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B9%9D%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第九修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第十修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%80%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第十一条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%8C%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第十二条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%89%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第十三条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第十四条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%94%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第十五条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%85%AD%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第十六条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%83%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第十七条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E5%85%AB%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第十八修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B9%9D%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第十九修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第二十条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%80%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第二十一条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%8C%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第二十二修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%89%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第二十三条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%9B%9B%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第二十四条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%94%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第二十五条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%85%AD%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第二十六条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%83%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第二十七修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:US_Constitution_article_series</t>
-  </si>
-  <si>
-    <t>Template talk-US Constitution article series</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E6%A1%A3%E6%A1%88%E9%A6%86</t>
-  </si>
-  <si>
-    <t>美国国家档案馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國國會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
-  </si>
-  <si>
-    <t>國教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E4%BF%A1%E4%BB%B0%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>宗教信仰自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>言論自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>新聞自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%9C%83%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>集會自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%B7%E6%84%BF</t>
-  </si>
-  <si>
-    <t>请愿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国联邦党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95%E5%A2%9E%E4%BF%AE%E6%A2%9D%E6%96%87</t>
-  </si>
-  <si>
-    <t>憲法增修條文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%B9%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>狹義</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Gitlow_v._New_York</t>
-  </si>
-  <si>
-    <t>en-Gitlow v. New York</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第十四修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%95%B6%E6%B3%95%E5%BE%8B%E7%A8%8B%E5%BA%8F</t>
-  </si>
-  <si>
-    <t>正當法律程序</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Everson_v._Board_of_Education</t>
-  </si>
-  <si>
-    <t>en-Everson v. Board of Education</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E7%88%B6</t>
-  </si>
-  <si>
-    <t>美国国父</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
-  </si>
-  <si>
-    <t>托马斯·杰斐逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%97%B6%E6%8A%A5%E8%AF%89%E6%B2%99%E5%88%A9%E6%96%87%E6%A1%88</t>
-  </si>
-  <si>
-    <t>纽约时报诉沙利文案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E6%99%AE%E9%80%9A%E6%B3%95%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>英美普通法系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94</t>
-  </si>
-  <si>
-    <t>媒體</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Near_v._Minnesota</t>
-  </si>
-  <si>
-    <t>en-Near v. Minnesota</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E7%A4%BE%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>結社自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%BA%A6%E8%BF%AA%E9%80%8A</t>
-  </si>
-  <si>
-    <t>詹姆斯·麦迪逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>美國獨立戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E8%87%AA%E6%B2%BB%E9%A2%86</t>
-  </si>
-  <si>
-    <t>弗吉尼亚自治领</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>弗吉尼亚权利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E6%9D%A1%E4%BE%8B</t>
-  </si>
-  <si>
-    <t>邦联条例</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%88%B6%E5%AE%AA%E4%BC%9A%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>美利坚合众国制宪会议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>費城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%A2%85%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>喬治·梅森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>弗吉尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%96%A9%E8%AB%B8%E8%B3%BD%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>馬薩諸賽州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紐約州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國眾議院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國參議院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
-  </si>
-  <si>
-    <t>政教分離</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美國聯邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%90%86%E5%AE%97</t>
-  </si>
-  <si>
-    <t>公理宗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國聯邦最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%88%88%C2%B7%E5%B8%83%E8%90%8A%E5%85%8B</t>
-  </si>
-  <si>
-    <t>休戈·布萊克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E5%BC%97%E9%80%8A</t>
-  </si>
-  <si>
-    <t>托马斯·杰弗逊</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Board_of_Education_of_Kiryas_Joel_Village_School_District_v._Grumet</t>
-  </si>
-  <si>
-    <t>en-Board of Education of Kiryas Joel Village School District v. Grumet</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%B6%AD%C2%B7%E8%98%87%E7%89%B9</t>
-  </si>
-  <si>
-    <t>戴維·蘇特</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Van_Orden_v._Perry</t>
-  </si>
-  <si>
-    <t>en-Van Orden v. Perry</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/McCreary_County_v._American_Civil_Liberties_Union</t>
-  </si>
-  <si>
-    <t>en-McCreary County v. American Civil Liberties Union</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Salazar_v._Buono</t>
-  </si>
-  <si>
-    <t>en-Salazar v. Buono</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Reynolds_v._United_States</t>
-  </si>
-  <si>
-    <t>en-Reynolds v. United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美國革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%96%80%E6%95%99</t>
-  </si>
-  <si>
-    <t>摩門教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
-  </si>
-  <si>
-    <t>首席大法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%87%8C%E6%A3%AE%C2%B7%E9%9F%A6%E7%89%B9</t>
-  </si>
-  <si>
-    <t>莫里森·韦特</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/George_Bancroft</t>
-  </si>
-  <si>
-    <t>en-George Bancroft</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%BA%A5%E8%BF%AA%E9%81%9C</t>
-  </si>
-  <si>
-    <t>詹姆斯·麥迪遜</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Engel_v._Vitale</t>
-  </si>
-  <si>
-    <t>en-Engel v. Vitale</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Abington_School_District_v._Schempp</t>
-  </si>
-  <si>
-    <t>en-Abington School District v. Schempp</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Walz_v._Tax_Commission</t>
-  </si>
-  <si>
-    <t>en-Walz v. Tax Commission</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lemon_v._Kurtzman</t>
-  </si>
-  <si>
-    <t>en-Lemon v. Kurtzman</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agostini_v._Felton</t>
-  </si>
-  <si>
-    <t>en-Agostini v. Felton</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Zelman_v._Simmons-Harris</t>
-  </si>
-  <si>
-    <t>en-Zelman v. Simmons-Harris</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>威廉·道格拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>美國保守主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%B0%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>信仰自由</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sherbert_v._Verner</t>
-  </si>
-  <si>
-    <t>en-Sherbert v. Verner</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%BE%A9%E8%87%A8%E5%AE%89%E6%81%AF%E6%97%A5%E6%9C%83</t>
-  </si>
-  <si>
-    <t>基督復臨安息日會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%9C%9F%E5%85%AD</t>
-  </si>
-  <si>
-    <t>星期六</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南加州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Wisconsin_v._Yoder</t>
-  </si>
-  <si>
-    <t>en-Wisconsin v. Yoder</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%95%E6%86%B2</t>
-  </si>
-  <si>
-    <t>違憲</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Employment_Division_v._Smith</t>
-  </si>
-  <si>
-    <t>en-Employment Division v. Smith</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Church_of_Lukumi_Babalu_Aye_v._City_of_Hialeah</t>
-  </si>
-  <si>
-    <t>en-Church of Lukumi Babalu Aye v. City of Hialeah</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
-  </si>
-  <si>
-    <t>猶太教</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Religious_Freedom_Restoration_Act</t>
-  </si>
-  <si>
-    <t>en-Religious Freedom Restoration Act</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/City_of_Boerne_v._Flores</t>
-  </si>
-  <si>
-    <t>en-City of Boerne v. Flores</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8B%E6%B3%95</t>
-  </si>
-  <si>
-    <t>釋法</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Gonzales_v._O_Centro_Espirita_Beneficente_Uniao_do_Vegetal</t>
-  </si>
-  <si>
-    <t>en-Gonzales v. O Centro Espirita Beneficente Uniao do Vegetal</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>费城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E7%BA%AA%E5%BF%B5%E9%A6%86</t>
-  </si>
-  <si>
-    <t>美国独立纪念馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A8%80%E8%AE%BA%E8%87%AA%E7%94%B1%E7%9A%84%E4%BE%8B%E5%A4%96</t>
-  </si>
-  <si>
-    <t>美国言论自由的例外</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E5%AE%A1%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>司法审查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>聯邦黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E4%BA%9A%E5%BD%93%E6%96%AF</t>
-  </si>
-  <si>
-    <t>约翰·亚当斯</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/the_Alien_and_Sedition_Acts_of_1798</t>
-  </si>
-  <si>
-    <t>en-the Alien and Sedition Acts of 1798</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%A6%E5%85%8D</t>
-  </si>
-  <si>
-    <t>赦免</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%A8%81%E5%BB%89%C2%B7%E5%B8%83%E5%80%AB%E5%8D%97</t>
-  </si>
-  <si>
-    <t>小威廉·布倫南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%A5%A5%E5%88%A9%E5%BC%97%C2%B7%E6%B8%A9%E5%BE%B7%E5%B0%94%C2%B7%E9%9C%8D%E5%A7%86%E6%96%AF</t>
-  </si>
-  <si>
-    <t>小奥利弗·温德尔·霍姆斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>第一次世界大戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1917%E5%B9%B4%E9%96%93%E8%AB%9C%E6%B3%95</t>
-  </si>
-  <si>
-    <t>1917年間諜法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B3%E5%85%8B%E8%AF%89%E5%90%88%E4%BC%97%E5%9B%BD%E6%A1%88</t>
-  </si>
-  <si>
-    <t>申克诉合众国案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B8%83%E6%96%AF%E8%AF%89%E5%90%88%E4%BC%97%E5%9B%BD%E6%A1%88</t>
-  </si>
-  <si>
-    <t>德布斯诉合众国案</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Frohwerk_v._United_States</t>
-  </si>
-  <si>
-    <t>en-Frohwerk v. United States</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Abrams_v._United_States</t>
-  </si>
-  <si>
-    <t>en-Abrams v. United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国社会党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%91%C2%B7V%C2%B7%E5%BE%B7%E5%B8%83%E6%96%AF</t>
-  </si>
-  <si>
-    <t>尤金·V·德布斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄亥俄州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E9%A1%BF_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>坎顿 (俄亥俄州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E7%BD%97%C2%B7%E5%A8%81%E5%B0%94%E9%80%8A</t>
-  </si>
-  <si>
-    <t>伍德罗·威尔逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E6%9C%88%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>十月革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E5%B8%83%E8%98%AD%E6%88%B4%E6%96%AF</t>
-  </si>
-  <si>
-    <t>路易斯·布蘭戴斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E7%89%B9%E5%B0%BC%E8%AF%89%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E6%A1%88</t>
-  </si>
-  <si>
-    <t>惠特尼诉加利福尼亚州案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>美國共產黨</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Charlotte_Anita_Whitney</t>
-  </si>
-  <si>
-    <t>en-Charlotte Anita Whitney</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Herndon_v._Lowry</t>
-  </si>
-  <si>
-    <t>en-Herndon v. Lowry</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>非洲裔美國人</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Angelo_Herndon</t>
-  </si>
-  <si>
-    <t>en-Angelo Herndon</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Smith_Act</t>
-  </si>
-  <si>
-    <t>en-Smith Act</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Eugene_Dennis</t>
-  </si>
-  <si>
-    <t>en-Eugene Dennis</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E6%96%AF%E8%AF%89%E5%90%88%E4%BC%97%E5%9B%BD%E6%A1%88</t>
-  </si>
-  <si>
-    <t>丹尼斯诉合众国案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E6%96%87%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>弗雷德·文森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%92%E6%81%A9%E5%BE%B7%C2%B7%E6%B1%89%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>勒恩德·汉德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%88%A9%E5%85%8B%E6%96%AF%C2%B7%E5%BC%97%E5%85%B0%E5%85%8B%E7%A6%8F%E7%89%B9</t>
-  </si>
-  <si>
-    <t>费利克斯·弗兰克福特</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Yates_v._United_States</t>
-  </si>
-  <si>
-    <t>en-Yates v. United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>越南戰爭</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_v._O%27Brien</t>
-  </si>
-  <si>
-    <t>en-United States v. O'Brien</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Brandenburg_v._Ohio</t>
-  </si>
-  <si>
-    <t>en-Brandenburg v. Ohio</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%81%A9%E8%A8%B4%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%A1%88</t>
-  </si>
-  <si>
-    <t>科恩訴加利福尼亞州案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%8E%BF</t>
-  </si>
-  <si>
-    <t>洛杉矶县</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%BE%E5%85%8B</t>
-  </si>
-  <si>
-    <t>夾克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%A6%AC%E6%AD%87%E7%88%BE%C2%B7%E5%93%88%E5%80%AB</t>
-  </si>
-  <si>
-    <t>約翰·馬歇爾·哈倫</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Talley_v._California</t>
-  </si>
-  <si>
-    <t>en-Talley v. California</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%B8%82</t>
-  </si>
-  <si>
-    <t>洛杉矶市</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/McIntyre_v._Ohio_Elections_Commission</t>
-  </si>
-  <si>
-    <t>en-McIntyre v. Ohio Elections Commission</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Foreign_Agents_Registration_Act</t>
-  </si>
-  <si>
-    <t>en-Foreign Agents Registration Act</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%8C%AE%E9%87%91</t>
-  </si>
-  <si>
-    <t>政治献金</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%A5%87%C2%B7%E9%BA%A5%E5%BA%B7%E8%AB%BE</t>
-  </si>
-  <si>
-    <t>米奇·麥康諾</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/McConnell_v._Federal_Election_Commission</t>
-  </si>
-  <si>
-    <t>en-McConnell v. Federal Election Commission</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Buckley_v._Valeo</t>
-  </si>
-  <si>
-    <t>en-Buckley v. Valeo</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Federal_Election_Campaign_Act</t>
-  </si>
-  <si>
-    <t>en-Federal Election Campaign Act</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bipartisan_Campaign_Reform_Act</t>
-  </si>
-  <si>
-    <t>en-Bipartisan Campaign Reform Act</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Tinker_v._Des_Moines_Independent_Community_School_District</t>
-  </si>
-  <si>
-    <t>en-Tinker v. Des Moines Independent Community School District</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Federal_Election_Commission_v._Wisconsin_Right_to_Life,_Inc.</t>
-  </si>
-  <si>
-    <t>en-Federal Election Commission v. Wisconsin Right to Life, Inc.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Davis_v._Federal_Election_Commission</t>
-  </si>
-  <si>
-    <t>en-Davis v. Federal Election Commission</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%85%AC%E6%B0%91%E8%A8%B4%E8%81%AF%E9%82%A6%E7%AB%B6%E9%81%B8%E5%A7%94%E5%93%A1%E6%9C%83%E6%A1%88</t>
-  </si>
-  <si>
-    <t>聯合公民訴聯邦競選委員會案</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Austin_v._Michigan_Chamber_of_Commerce</t>
-  </si>
-  <si>
-    <t>en-Austin v. Michigan Chamber of Commerce</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Street_v._New_York</t>
-  </si>
-  <si>
-    <t>en-Street v. New York</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/James_Meredith</t>
-  </si>
-  <si>
-    <t>en-James Meredith</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>美國國旗</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Stromberg_v._California</t>
-  </si>
-  <si>
-    <t>en-Stromberg v. California</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E%E8%AF%89%E7%BA%A6%E7%BF%B0%E9%80%8A%E6%A1%88</t>
-  </si>
-  <si>
-    <t>德克萨斯州诉约翰逊案</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Gregory_Lee_Johnson</t>
-  </si>
-  <si>
-    <t>en-Gregory Lee Johnson</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德克薩斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>達拉斯</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_v._Eichman</t>
-  </si>
-  <si>
-    <t>en-United States v. Eichman</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%97%E6%B1%99%E6%90%8D%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>國旗汙損修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%A3%E8%AA%89%E5%8B%8B%E7%AB%A0</t>
-  </si>
-  <si>
-    <t>荣誉勋章</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Stolen_Valor_Act</t>
-  </si>
-  <si>
-    <t>en-Stolen Valor Act</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_v._Alvarez</t>
-  </si>
-  <si>
-    <t>en-United States v. Alvarez</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Valentine_v._Chrestensen</t>
-  </si>
-  <si>
-    <t>en-Valentine v. Chrestensen</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
-  </si>
-  <si>
-    <t>紐約市</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Owen_Roberts</t>
-  </si>
-  <si>
-    <t>en-Owen Roberts</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Virginia_State_Pharmacy_Board_v._Virginia_Citizens_Consumer_Council</t>
-  </si>
-  <si>
-    <t>en-Virginia State Pharmacy Board v. Virginia Citizens Consumer Council</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Central_Hudson_Gas_%26_Electric_Corp._v._Public_Service_Commission</t>
-  </si>
-  <si>
-    <t>en-Central Hudson Gas &amp; Electric Corp. v. Public Service Commission</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Posadas_de_Puerto_Rico_Associates_v._Tourism_Company_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Posadas de Puerto Rico Associates v. Tourism Company of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/44_Liquormart,_Inc._v._Rhode_Island</t>
-  </si>
-  <si>
-    <t>en-44 Liquormart, Inc. v. Rhode Island</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>羅德島州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E4%BA%9A%E4%BC%AF%C2%B7%E6%96%B9%E7%89%B9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>亚伯拉罕·亚伯·方特斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>極權主義</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Healy_v._James</t>
-  </si>
-  <si>
-    <t>en-Healy v. James</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bethel_School_District_v._Fraser</t>
-  </si>
-  <si>
-    <t>en-Bethel School District v. Fraser</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hazelwood_v._Kuhlmeier</t>
-  </si>
-  <si>
-    <t>en-Hazelwood v. Kuhlmeier</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Morse_v._Frederick</t>
-  </si>
-  <si>
-    <t>en-Morse v. Frederick</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%C2%B7%E6%96%AF%E5%9B%BE%E5%B0%94%E7%89%B9</t>
-  </si>
-  <si>
-    <t>波特·斯图尔特</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Rosen_v._United_States</t>
-  </si>
-  <si>
-    <t>en-Rosen v. United States</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hicklin_test</t>
-  </si>
-  <si>
-    <t>en-Hicklin test</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E5%BE%B7%E8%8E%B1%E8%B5%9B</t>
-  </si>
-  <si>
-    <t>西奥多·德莱赛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E6%82%B2%E5%89%A7</t>
-  </si>
-  <si>
-    <t>美国的悲剧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/D%C2%B7H%C2%B7%E5%8A%B3%E4%BC%A6%E6%96%AF</t>
-  </si>
-  <si>
-    <t>D·H·劳伦斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E6%B3%B0%E8%8E%B1%E5%A4%AB%E4%BA%BA%E7%9A%84%E6%83%85%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>查泰莱夫人的情人</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_v._One_Book_Called_Ulysses</t>
-  </si>
-  <si>
-    <t>en-United States v. One Book Called Ulysses</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%96%AC%E4%BC%8A%E6%96%AF</t>
-  </si>
-  <si>
-    <t>詹姆斯·喬伊斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%88%A9%E8%A5%BF%E6%96%AF</t>
-  </si>
-  <si>
-    <t>尤利西斯</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Roth_v._United_States</t>
-  </si>
-  <si>
-    <t>en-Roth v. United States</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jacobellis_v._Ohio</t>
-  </si>
-  <si>
-    <t>en-Jacobellis v. Ohio</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Miller_v._California</t>
-  </si>
-  <si>
-    <t>en-Miller v. California</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Miller_test</t>
-  </si>
-  <si>
-    <t>en-Miller test</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/New_York_v._Ferber</t>
-  </si>
-  <si>
-    <t>en-New York v. Ferber</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Osborne_v._Ohio</t>
-  </si>
-  <si>
-    <t>en-Osborne v. Ohio</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E8%89%B2%E6%83%85</t>
-  </si>
-  <si>
-    <t>兒童色情</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Stanley_v._Georgia</t>
-  </si>
-  <si>
-    <t>en-Stanley v. Georgia</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ashcroft_v._Free_Speech_Coalition</t>
-  </si>
-  <si>
-    <t>en-Ashcroft v. Free Speech Coalition</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Child_Pornography_Prevention_Act_of_1996</t>
-  </si>
-  <si>
-    <t>en-Child Pornography Prevention Act of 1996</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_v._Williams</t>
-  </si>
-  <si>
-    <t>en-United States v. Williams</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/PROTECT_Act_of_2003</t>
-  </si>
-  <si>
-    <t>en-PROTECT Act of 2003</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Son_of_Sam_law</t>
-  </si>
-  <si>
-    <t>en-Son of Sam law</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E8%B2%9D%E7%88%BE%E7%A7%91%E7%B6%AD%E5%A5%87</t>
-  </si>
-  <si>
-    <t>大衛·貝爾科維奇</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Simon_%26_Schuster_v._Crime_Victims_Board</t>
-  </si>
-  <si>
-    <t>en-Simon &amp; Schuster v. Crime Victims Board</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E5%AF%A6%E6%83%A1%E6%84%8F%E5%8E%9F%E5%89%87</t>
-  </si>
-  <si>
-    <t>真實惡意原則</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/William_Blackstone</t>
-  </si>
-  <si>
-    <t>en-William Blackstone</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%8F%A3%E5%8F%AF%E6%A8%82%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>可口可樂公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>紐約時報</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿拉巴馬州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A9%AC%E5%88%A9%E5%B8%82</t>
-  </si>
-  <si>
-    <t>蒙哥马利市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>非裔美國人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>民權運動</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Dun_%26_Bradstreet,_Inc._v._Greenmoss_Builders,_Inc.</t>
-  </si>
-  <si>
-    <t>en-Dun &amp; Bradstreet, Inc. v. Greenmoss Builders, Inc.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Gertz_v._Robert_Welch,_Inc.</t>
-  </si>
-  <si>
-    <t>en-Gertz v. Robert Welch, Inc.</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%89%B2%E5%AE%A2%E9%9B%9C%E8%AA%8C%E8%A8%B4%E7%A6%8F%E7%88%BE%E9%9F%8B%E7%88%BE%E6%A1%88</t>
-  </si>
-  <si>
-    <t>好色客雜誌訴福爾韋爾案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%B6%E6%90%9E</t>
-  </si>
-  <si>
-    <t>恶搞</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Milkovich_v._Lorain_Journal_Co.</t>
-  </si>
-  <si>
-    <t>en-Milkovich v. Lorain Journal Co.</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%81%E4%BC%AA</t>
-  </si>
-  <si>
-    <t>证伪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亞州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pruneyard_Shopping_Center_v._Robins</t>
-  </si>
-  <si>
-    <t>en-Pruneyard Shopping Center v. Robins</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科羅拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新澤西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%B0%94%C2%B7%E8%89%BE%E5%B0%94%E6%96%AF%E4%BC%AF%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>丹尼尔·艾尔斯伯格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A7%92%E5%A4%A7%E6%A8%93</t>
-  </si>
-  <si>
-    <t>五角大樓</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lovell_v._City_of_Griffin</t>
-  </si>
-  <si>
-    <t>en-Lovell v. City of Griffin</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E5%9F%83%E6%96%87%E6%96%AF%C2%B7%E4%BC%91%E6%96%AF</t>
-  </si>
-  <si>
-    <t>查尔斯·埃文斯·休斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1%E8%A8%B4%E7%BE%8E%E5%9C%8B%E6%A1%88</t>
-  </si>
-  <si>
-    <t>紐約時報訴美國案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
-  </si>
-  <si>
-    <t>理查德·尼克松</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Miami_Herald_Publishing_Co._v._Tornillo</t>
-  </si>
-  <si>
-    <t>en-Miami Herald Publishing Co. v. Tornillo</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E9%80%9A%E8%A8%8A%E5%A7%94%E5%93%A1%E6%9C%83%E8%A8%B4%E5%A4%AA%E5%B9%B3%E6%B4%8B%E9%9B%BB%E5%8F%B0%E6%A1%88</t>
-  </si>
-  <si>
-    <t>聯邦通訊委員會訴太平洋電台案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E9%80%9A%E8%A8%8A%E5%A7%94%E5%93%A1%E6%9C%83</t>
-  </si>
-  <si>
-    <t>聯邦通訊委員會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Grosjean_v._American_Press_Co.</t>
-  </si>
-  <si>
-    <t>en-Grosjean v. American Press Co.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Branzburg_v._Hayes</t>
-  </si>
-  <si>
-    <t>en-Branzburg v. Hayes</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%AA%E5%AE%A1%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>大陪审团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%A5%A8</t>
-  </si>
-  <si>
-    <t>傳票</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E6%98%93%E6%96%AF%C2%B7%E9%AE%91%E5%A8%81%E7%88%BE</t>
-  </si>
-  <si>
-    <t>劉易斯·鮑威爾</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/gag_rule</t>
-  </si>
-  <si>
-    <t>en-gag rule</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國聯邦法院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Borough_of_Duryea_v._Guarnieri</t>
-  </si>
-  <si>
-    <t>en-Borough of Duryea v. Guarnieri</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_v._Cruikshank</t>
-  </si>
-  <si>
-    <t>en-United States v. Cruikshank</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Noerr-Pennington_doctrine</t>
-  </si>
-  <si>
-    <t>en-Noerr-Pennington doctrine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%9B%BC%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>休曼法案</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/National_Association_for_the_Advancement_of_Colored_People_v._Alabama</t>
-  </si>
-  <si>
-    <t>en-National Association for the Advancement of Colored People v. Alabama</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Roberts_v._United_States_Jaycees</t>
-  </si>
-  <si>
-    <t>en-Roberts v. United States Jaycees</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hurley_v._Irish-American_Gay,_Lesbian,_and_Bisexual_Group_of_Boston</t>
-  </si>
-  <si>
-    <t>en-Hurley v. Irish-American Gay, Lesbian, and Bisexual Group of Boston</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AB%A5%E8%BB%8D%E8%A8%B4%E6%88%B4%E7%88%BE%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國童軍訴戴爾案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AB%A5%E8%BB%8D</t>
-  </si>
-  <si>
-    <t>美國童軍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E6%AB%83</t>
-  </si>
-  <si>
-    <t>出櫃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1689%E5%B9%B4%E6%AC%8A%E5%88%A9%E6%B3%95%E4%BB%A4</t>
-  </si>
-  <si>
-    <t>1689年權利法令</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%86%B2%E7%AB%A0</t>
-  </si>
-  <si>
-    <t>大憲章</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E8%81%94%E9%82%A6%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E7%99%BE%E4%B8%80%E5%8D%81%E5%85%AD%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>澳大利亚联邦宪法第一百一十六条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%A1%AE%E6%96%B0%E9%97%BB%E5%8F%8A%E8%B5%84%E8%AE%AF%E6%B3%95</t>
-  </si>
-  <si>
-    <t>正确新闻及资讯法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>美國國會圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%88%A4%E4%BE%8B%E6%8A%A5%E5%91%8A</t>
-  </si>
-  <si>
-    <t>美国联邦最高法院判例报告</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%A5%88%E5%B0%94%E5%A4%A7%E5%AD%A6%E6%B3%95%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>康奈尔大学法学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/DOI</t>
-  </si>
-  <si>
-    <t>DOI</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8</t>
-  </si>
-  <si>
-    <t>美國法典</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Title_18_of_the_United_States_Code</t>
-  </si>
-  <si>
-    <t>en-Title 18 of the United States Code</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Tom_C._Clark</t>
-  </si>
-  <si>
-    <t>en-Tom C. Clark</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E6%AA%A2%E5%AF%9F%E9%95%B7</t>
-  </si>
-  <si>
-    <t>美國總檢察長</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Title_50a_of_the_United_States_Code</t>
-  </si>
-  <si>
-    <t>en-Title 50a of the United States Code</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%83%B5%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>華盛頓郵報</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Westmoreland_v._CBS</t>
-  </si>
-  <si>
-    <t>en-Westmoreland v. CBS</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Eastern_Railroad_Presidents_Conference_v._Noerr_Motor_Freight,_Inc</t>
-  </si>
-  <si>
-    <t>en-Eastern Railroad Presidents Conference v. Noerr Motor Freight, Inc</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_Mine_Workers_v._Pennington</t>
-  </si>
-  <si>
-    <t>en-United Mine Workers v. Pennington</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E9%B9%85%E5%87%BA%E7%89%88%E9%9B%86%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>企鹅出版集团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E7%99%BB%E4%B9%A6%E5%B1%8B</t>
-  </si>
-  <si>
-    <t>兰登书屋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>喬治亞大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AE%BA%E7%9A%84%E8%BE%B9%E7%95%8C%EF%BC%9A%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88%E7%AE%80%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>言论的边界：美国宪法第一修正案简史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第二修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第三修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第四修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第五修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%85%AD%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第六修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%83%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第七修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第十一修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%8C%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第十二修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第十三修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第十四修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第十五修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%85%AD%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第十六修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%83%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第十七修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第二十修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第二十一修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第二十三修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第二十四修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第二十五修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%85%AD%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第二十六修正案</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Congressional_Apportionment_Amendment</t>
-  </si>
-  <si>
-    <t>en-Congressional Apportionment Amendment</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Titles_of_Nobility_Amendment</t>
-  </si>
-  <si>
-    <t>en-Titles of Nobility Amendment</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Corwin_Amendment</t>
-  </si>
-  <si>
-    <t>en-Corwin Amendment</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Child_Labor_Amendment</t>
-  </si>
-  <si>
-    <t>en-Child Labor Amendment</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%BB%BA%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>重建修正案</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_proposed_amendments_to_the_United_States_Constitution</t>
-  </si>
-  <si>
-    <t>en-List of proposed amendments to the United States Constitution</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Convention_to_propose_amendments_to_the_United_States_Constitution</t>
-  </si>
-  <si>
-    <t>en-Convention to propose amendments to the United States Constitution</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/State_ratifying_conventions</t>
-  </si>
-  <si>
-    <t>en-State ratifying conventions</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国宪法历史</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mount_Vernon_Conference</t>
-  </si>
-  <si>
-    <t>en-Mount Vernon Conference</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF%E6%9C%83%E8%AD%B0_(1786%E5%B9%B4)</t>
-  </si>
-  <si>
-    <t>安納波利斯會議 (1786年)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%88%B6%E5%AE%AA%E4%BC%9A%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>美国制宪会议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E6%96%B9%E6%A1%88</t>
-  </si>
-  <si>
-    <t>弗吉尼亚方案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E6%96%B9%E6%A1%88</t>
-  </si>
-  <si>
-    <t>新泽西方案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%A6%A5%E5%8D%8F</t>
-  </si>
-  <si>
-    <t>康涅狄格妥协</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%88%86%E4%B9%8B%E4%B8%89%E5%A6%A5%E5%8D%8F</t>
-  </si>
-  <si>
-    <t>五分之三妥协</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AD%BE%E7%BD%B2%E4%BA%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法签署人列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E7%B4%80%E5%BF%B5%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>美國獨立紀念館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%85%9A%E4%BA%BA%E6%96%87%E9%9B%86</t>
-  </si>
-  <si>
-    <t>联邦党人文集</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Anti-Federalist_Papers</t>
-  </si>
-  <si>
-    <t>en-Anti-Federalist Papers</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%A6%A5%E5%8D%8F</t>
-  </si>
-  <si>
-    <t>马萨诸塞妥协</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Virginia_Ratifying_Convention</t>
-  </si>
-  <si>
-    <t>en-Virginia Ratifying Convention</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hillsborough_Convention</t>
-  </si>
-  <si>
-    <t>en-Hillsborough Convention</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A1%A3%E6%A1%88%E9%A6%86%E5%A4%A7%E6%A5%BC</t>
-  </si>
-  <si>
-    <t>国家档案馆大楼</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Charters_of_Freedom</t>
-  </si>
-  <si>
-    <t>en-Charters of Freedom</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Independence_Mall_(Philadelphia)</t>
-  </si>
-  <si>
-    <t>en-Independence Mall (Philadelphia)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Constitution_Day_(United_States)</t>
-  </si>
-  <si>
-    <t>en-Constitution Day (United States)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Constitution_Garden</t>
-  </si>
-  <si>
-    <t>en-Constitution Garden</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/National_Constitution_Center</t>
-  </si>
-  <si>
-    <t>en-National Constitution Center</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_Constitution_and_worldwide_influence</t>
-  </si>
-  <si>
-    <t>en-United States Constitution and worldwide influence</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2418,7 +2412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I362"/>
+  <dimension ref="A1:I364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2472,7 +2466,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -2530,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -2849,7 +2843,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -3661,7 +3655,7 @@
         <v>84</v>
       </c>
       <c r="G43" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -5021,7 +5015,7 @@
         <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5047,10 +5041,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5076,10 +5070,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5105,10 +5099,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5134,10 +5128,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5163,10 +5157,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5192,10 +5186,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5221,10 +5215,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -5250,10 +5244,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5279,10 +5273,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>6</v>
@@ -5308,10 +5302,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5337,10 +5331,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5366,10 +5360,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5395,10 +5389,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5424,10 +5418,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5453,10 +5447,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>16</v>
@@ -5482,10 +5476,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5511,10 +5505,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5540,10 +5534,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5569,10 +5563,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5598,10 +5592,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5627,10 +5621,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>4</v>
@@ -5656,10 +5650,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5685,10 +5679,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5714,10 +5708,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5743,10 +5737,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5772,10 +5766,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5801,10 +5795,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5830,10 +5824,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5859,10 +5853,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5888,10 +5882,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5917,10 +5911,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -5946,10 +5940,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5975,10 +5969,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6004,10 +5998,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>6</v>
@@ -6033,10 +6027,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6062,10 +6056,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6091,10 +6085,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6120,10 +6114,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6149,10 +6143,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6178,10 +6172,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6207,10 +6201,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>15</v>
@@ -6236,10 +6230,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6265,10 +6259,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6294,10 +6288,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6323,10 +6317,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F135" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G135" t="n">
         <v>4</v>
@@ -6352,10 +6346,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6410,10 +6404,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>4</v>
@@ -6439,10 +6433,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6468,10 +6462,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6497,10 +6491,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6526,10 +6520,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6555,10 +6549,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6584,10 +6578,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6613,10 +6607,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -6642,10 +6636,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6671,10 +6665,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6700,10 +6694,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>5</v>
@@ -6729,10 +6723,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6758,10 +6752,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6787,10 +6781,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6816,10 +6810,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6845,10 +6839,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -6874,10 +6868,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6903,10 +6897,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6932,10 +6926,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6961,10 +6955,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6990,10 +6984,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7019,10 +7013,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7048,10 +7042,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7077,10 +7071,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7106,10 +7100,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7135,10 +7129,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7164,10 +7158,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>5</v>
@@ -7193,10 +7187,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7222,10 +7216,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7251,10 +7245,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7280,10 +7274,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7309,10 +7303,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7338,10 +7332,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -7367,10 +7361,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7396,10 +7390,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7425,10 +7419,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -7454,10 +7448,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7483,10 +7477,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7512,10 +7506,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7541,10 +7535,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7570,10 +7564,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7599,10 +7593,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7628,10 +7622,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7657,10 +7651,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -7686,10 +7680,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7715,10 +7709,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7744,10 +7738,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7773,10 +7767,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7802,10 +7796,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7831,10 +7825,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7860,10 +7854,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7889,10 +7883,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7918,10 +7912,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7947,10 +7941,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7976,10 +7970,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8005,10 +7999,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8034,10 +8028,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>10</v>
@@ -8063,10 +8057,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8092,10 +8086,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>3</v>
@@ -8121,10 +8115,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8150,10 +8144,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8179,10 +8173,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8208,10 +8202,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8237,10 +8231,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8266,10 +8260,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8295,10 +8289,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8324,10 +8318,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8353,10 +8347,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8382,10 +8376,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8411,10 +8405,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8440,10 +8434,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8469,10 +8463,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8498,10 +8492,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8527,10 +8521,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8556,10 +8550,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8585,10 +8579,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8614,10 +8608,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8643,10 +8637,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8672,10 +8666,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8701,10 +8695,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8730,10 +8724,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8759,10 +8753,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>5</v>
@@ -8788,10 +8782,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8817,10 +8811,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8846,10 +8840,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8875,10 +8869,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8904,10 +8898,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8933,10 +8927,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8962,10 +8956,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8991,10 +8985,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9049,10 +9043,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F229" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G229" t="n">
         <v>6</v>
@@ -9078,10 +9072,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9107,10 +9101,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9136,10 +9130,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G232" t="n">
         <v>10</v>
@@ -9165,10 +9159,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G233" t="n">
         <v>4</v>
@@ -9194,10 +9188,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F234" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9223,10 +9217,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F235" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9252,10 +9246,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F236" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9281,10 +9275,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F237" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9310,10 +9304,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F238" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9339,10 +9333,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F239" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9368,10 +9362,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F240" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9397,10 +9391,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9426,10 +9420,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9455,10 +9449,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G243" t="n">
         <v>10</v>
@@ -9484,10 +9478,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9513,10 +9507,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9542,10 +9536,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F246" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G246" t="n">
         <v>3</v>
@@ -9571,10 +9565,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9600,10 +9594,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9629,10 +9623,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9658,10 +9652,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -9687,10 +9681,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9716,10 +9710,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9745,10 +9739,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F253" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9803,10 +9797,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9832,10 +9826,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9861,10 +9855,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -9890,10 +9884,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9919,10 +9913,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -9948,10 +9942,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -9977,10 +9971,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10006,10 +10000,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10064,10 +10058,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F264" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10151,10 +10145,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10180,10 +10174,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10209,10 +10203,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10238,10 +10232,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10267,10 +10261,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10296,10 +10290,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F272" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -10325,10 +10319,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10354,10 +10348,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10383,10 +10377,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10412,10 +10406,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G276" t="n">
         <v>4</v>
@@ -10441,10 +10435,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10470,10 +10464,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10499,10 +10493,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10528,10 +10522,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10557,10 +10551,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10615,10 +10609,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F283" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10644,10 +10638,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F284" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G284" t="n">
         <v>80</v>
@@ -10673,10 +10667,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F285" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G285" t="n">
         <v>3</v>
@@ -10702,10 +10696,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F286" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10731,10 +10725,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F287" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -10760,10 +10754,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F288" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10789,10 +10783,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F289" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10818,10 +10812,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F290" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10847,10 +10841,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F291" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10876,10 +10870,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F292" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -10905,10 +10899,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F293" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10934,10 +10928,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F294" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10963,10 +10957,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F295" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10992,10 +10986,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F296" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11021,10 +11015,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F297" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11050,10 +11044,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F298" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11079,10 +11073,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F299" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11108,10 +11102,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F300" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G300" t="n">
         <v>3</v>
@@ -11137,13 +11131,13 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F301" t="s">
-        <v>578</v>
+        <v>22</v>
       </c>
       <c r="G301" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -11166,13 +11160,13 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F302" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G302" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -11195,13 +11189,13 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F303" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G303" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -11224,13 +11218,13 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F304" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G304" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -11253,13 +11247,13 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F305" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G305" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -11282,13 +11276,13 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F306" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G306" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -11311,13 +11305,13 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F307" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G307" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -11346,7 +11340,7 @@
         <v>26</v>
       </c>
       <c r="G308" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -11375,7 +11369,7 @@
         <v>28</v>
       </c>
       <c r="G309" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -11404,7 +11398,7 @@
         <v>30</v>
       </c>
       <c r="G310" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
@@ -11427,13 +11421,13 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F311" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G311" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -11456,13 +11450,13 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F312" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G312" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -11485,13 +11479,13 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F313" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G313" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -11514,13 +11508,13 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F314" t="s">
-        <v>598</v>
+        <v>96</v>
       </c>
       <c r="G314" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -11543,10 +11537,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F315" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G315" t="n">
         <v>37</v>
@@ -11572,10 +11566,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F316" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G316" t="n">
         <v>27</v>
@@ -11601,10 +11595,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F317" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G317" t="n">
         <v>53</v>
@@ -11688,10 +11682,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F320" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G320" t="n">
         <v>225</v>
@@ -11717,13 +11711,13 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F321" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G321" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -11775,10 +11769,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F323" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G323" t="n">
         <v>11</v>
@@ -11804,13 +11798,13 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F324" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G324" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -11833,10 +11827,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F325" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G325" t="n">
         <v>16</v>
@@ -11862,10 +11856,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F326" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G326" t="n">
         <v>13</v>
@@ -11920,10 +11914,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F328" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11949,10 +11943,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F329" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11978,10 +11972,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F330" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12007,10 +12001,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F331" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12065,10 +12059,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F333" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12094,10 +12088,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F334" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12123,10 +12117,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F335" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12152,10 +12146,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F336" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12181,10 +12175,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F337" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12210,10 +12204,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F338" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12239,10 +12233,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F339" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12268,10 +12262,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F340" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12297,10 +12291,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F341" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12326,10 +12320,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F342" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12355,10 +12349,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F343" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12384,10 +12378,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F344" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12413,10 +12407,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F345" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12442,10 +12436,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F346" t="s">
-        <v>652</v>
+        <v>222</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12471,10 +12465,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F347" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12500,10 +12494,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F348" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12529,10 +12523,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F349" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12558,10 +12552,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F350" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12587,10 +12581,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F351" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12616,10 +12610,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F352" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -12645,10 +12639,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F353" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12674,10 +12668,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F354" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12703,10 +12697,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F355" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12732,10 +12726,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F356" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12761,10 +12755,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F357" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12790,10 +12784,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F358" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12819,10 +12813,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F359" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G359" t="n">
         <v>3</v>
@@ -12848,10 +12842,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F360" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12877,10 +12871,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F361" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12906,10 +12900,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F362" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -12918,6 +12912,64 @@
         <v>4</v>
       </c>
       <c r="I362" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1</v>
+      </c>
+      <c r="D363" t="n">
+        <v>362</v>
+      </c>
+      <c r="E363" t="s">
+        <v>680</v>
+      </c>
+      <c r="F363" t="s">
+        <v>681</v>
+      </c>
+      <c r="G363" t="n">
+        <v>13</v>
+      </c>
+      <c r="H363" t="s">
+        <v>4</v>
+      </c>
+      <c r="I363" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>0</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1</v>
+      </c>
+      <c r="D364" t="n">
+        <v>363</v>
+      </c>
+      <c r="E364" t="s">
+        <v>680</v>
+      </c>
+      <c r="F364" t="s">
+        <v>682</v>
+      </c>
+      <c r="G364" t="n">
+        <v>1</v>
+      </c>
+      <c r="H364" t="s">
+        <v>4</v>
+      </c>
+      <c r="I364" t="n">
         <v>3</v>
       </c>
     </row>
